--- a/biology/Zoologie/Hiodon_tergisus/Hiodon_tergisus.xlsx
+++ b/biology/Zoologie/Hiodon_tergisus/Hiodon_tergisus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hiodon tergisus, communément appelé Laquaiche argentée, est une espèce de poissons d'eau douce de la famille des Hiodontida répandue en Amérique du Nord.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La laquaiche argentée mesure environ 28 cm. Son corps est comprimé.
-Le plus grand spécimen mesure 47 cm et le plus lourd pèse 907 g[1].
+Le plus grand spécimen mesure 47 cm et le plus lourd pèse 907 g.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La laquaiche argentée est endémique de l'est de l'Amérique du Nord. On peut la trouver à la baie d'Hudson, au delta du Mississippi, au centre d'Alberta et en Caroline du Nord. 
 </t>
@@ -574,11 +590,13 @@
           <t>Écologie et comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La laquaiche argentée vit dans les rivières et les lacs et est généralement active pendant la journée.
-Les adultes se nourrissent principalement d'insectes, mais certains mangent aussi des crustacés et des mollusques[2]. Les jeunes mangent des larves de trichoptères, des moucherons, d'éphémères, de corixidés et de plécoptères[3].
-Cette espèce est parfois parasitée par Crepidostomum hiodontos et Paurorhynchus hiodontis[4].
+Les adultes se nourrissent principalement d'insectes, mais certains mangent aussi des crustacés et des mollusques. Les jeunes mangent des larves de trichoptères, des moucherons, d'éphémères, de corixidés et de plécoptères.
+Cette espèce est parfois parasitée par Crepidostomum hiodontos et Paurorhynchus hiodontis.
 </t>
         </is>
       </c>
